--- a/data/trans_camb/P1416-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1416-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.1129897601911553</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.67623147172103</v>
+        <v>2.676231471721028</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.234665098985692</v>
+        <v>-3.38100229378003</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.148322265036053</v>
+        <v>-1.786160155049549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4768031564762496</v>
+        <v>0.2739643470609225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.546263565291078</v>
+        <v>-6.382506117946137</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.543820589310921</v>
+        <v>-6.009300316775469</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.417159282033072</v>
+        <v>-5.209233578647149</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.677829276582281</v>
+        <v>-3.668653739704056</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.415028161963023</v>
+        <v>-2.5513470085934</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9790336540609937</v>
+        <v>-0.7937693152231153</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.99533573949546</v>
+        <v>3.729652714749601</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.846868021309763</v>
+        <v>5.644120102592772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.04907196812265</v>
+        <v>12.01660943535139</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.310733093555583</v>
+        <v>1.411744447127257</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.127177591889679</v>
+        <v>1.963542203103307</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.704969261433019</v>
+        <v>5.156675631021833</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.633494186571263</v>
+        <v>1.565652810774009</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.242307491234907</v>
+        <v>2.739036891294846</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.184173621022852</v>
+        <v>7.344158146271471</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.01155063695944111</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2735838902302598</v>
+        <v>0.2735838902302596</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3276709255605722</v>
+        <v>-0.3373817563107386</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2146929649832754</v>
+        <v>-0.1797780008088072</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04022472003261988</v>
+        <v>0.03103568031433755</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4876996249873546</v>
+        <v>-0.4770312928553174</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4396425419426813</v>
+        <v>-0.4455745059236491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4427473258425763</v>
+        <v>-0.4110074465059923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3298135579933497</v>
+        <v>-0.3411555655381107</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2207696389877001</v>
+        <v>-0.235583738115995</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.09939304556735171</v>
+        <v>-0.08176768333443174</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6230644286483195</v>
+        <v>0.5618073800729415</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8948224967622757</v>
+        <v>0.8335815751642111</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.710429640787284</v>
+        <v>1.815926833364903</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1571718032438301</v>
+        <v>0.1614657262165071</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.230946861973759</v>
+        <v>0.226234870076327</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5169914736415154</v>
+        <v>0.5468902500127152</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1912967482190494</v>
+        <v>0.1839305943809942</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3965748037023355</v>
+        <v>0.3258108291179888</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8454421357437195</v>
+        <v>0.8349066819117709</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.739415355740369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.784267865606973</v>
+        <v>2.784267865606975</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.247209609567523</v>
@@ -869,7 +869,7 @@
         <v>-0.9491378425518004</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.655403245178122</v>
+        <v>2.655403245178119</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.948092141659939</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.412783499245746</v>
+        <v>-4.558174174023407</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.406217848060302</v>
+        <v>-4.672112659671076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.012337572066873</v>
+        <v>-1.054239094292481</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.407710880273433</v>
+        <v>-5.781450154254926</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.470024850690132</v>
+        <v>-4.653848527358236</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.592984216220659</v>
+        <v>-1.323705326363924</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.052286605406708</v>
+        <v>-4.154545350345519</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.487311362827296</v>
+        <v>-3.57944072163911</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1395659518782029</v>
+        <v>0.2934971708300387</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9805255094288802</v>
+        <v>1.00370619359144</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.485107846970298</v>
+        <v>0.9014114925951621</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.685863027434779</v>
+        <v>7.405545780006226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.232288827148733</v>
+        <v>0.8713303304034895</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.440291459866402</v>
+        <v>2.405838464400432</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.427780600173135</v>
+        <v>6.859078981853925</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3514098831816126</v>
+        <v>0.2754553709288082</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.00132205353927</v>
+        <v>0.9601934719205061</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.661681612705952</v>
+        <v>5.704700393868634</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2119322554385095</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3392382196441456</v>
+        <v>0.3392382196441457</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2096722041458495</v>
@@ -974,7 +974,7 @@
         <v>-0.08855774852456751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.24775804132472</v>
+        <v>0.2477580413247197</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2081044251148784</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.455811515357828</v>
+        <v>-0.4682485690061707</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4585913173258142</v>
+        <v>-0.5005266491557492</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1166351684399066</v>
+        <v>-0.1241453542079209</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4485725385145596</v>
+        <v>-0.4698453694311446</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3596889724922172</v>
+        <v>-0.3672680126757181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1302246528653981</v>
+        <v>-0.1100750816429302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3871798887957261</v>
+        <v>-0.3867467174649318</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3266586956140107</v>
+        <v>-0.3468454285291807</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.005787113096964678</v>
+        <v>0.02041842059356061</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1448392811793557</v>
+        <v>0.1692614008702409</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2384626499529514</v>
+        <v>0.1307133780113899</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.096858047274537</v>
+        <v>1.080839913747446</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1412798590012726</v>
+        <v>0.09955307128252948</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.274910093745765</v>
+        <v>0.2625086663166443</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6978776278352132</v>
+        <v>0.7691679159742409</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04805912406134948</v>
+        <v>0.04221505255635019</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1209115821126687</v>
+        <v>0.1094168121663548</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.668217902312737</v>
+        <v>0.6812859500007621</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.9011978841693857</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8127189809332441</v>
+        <v>0.8127189809332456</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.3195341487675835</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.504716231147803</v>
+        <v>-3.221538880187226</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.901578613170146</v>
+        <v>-4.413314678929853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.234423369834922</v>
+        <v>1.411719758834037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.60267630812179</v>
+        <v>-3.445897542944375</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.097296519336691</v>
+        <v>-4.15993125298982</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.398979507213773</v>
+        <v>-2.404339950531229</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.386076822264899</v>
+        <v>-2.405585247620299</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.843747227640289</v>
+        <v>-3.611561966489552</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3715604916450285</v>
+        <v>0.398972459730658</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.062779388773437</v>
+        <v>2.443579256246404</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8741391447775024</v>
+        <v>0.7099523259750052</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.155847013335302</v>
+        <v>7.745182550886216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.402234354951666</v>
+        <v>3.254622257583052</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.593729937868657</v>
+        <v>2.636927611593644</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.251862169133071</v>
+        <v>3.958472864704124</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.77302365921432</v>
+        <v>1.807914276144039</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6469456232548459</v>
+        <v>0.6678480197996219</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.00865523097529</v>
+        <v>4.845053729692427</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.08307704908172422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07492060939631494</v>
+        <v>0.07492060939631506</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.03614973576651343</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4308142180862838</v>
+        <v>-0.4091595715549298</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5895163519976856</v>
+        <v>-0.555680049640161</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1536253847534332</v>
+        <v>0.1514626853533859</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.283903800846728</v>
+        <v>-0.2821541207956332</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3318577484585237</v>
+        <v>-0.3318926602001736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1959489545922137</v>
+        <v>-0.2035577290831028</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2398317740269875</v>
+        <v>-0.2465541143844464</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3695973727329053</v>
+        <v>-0.362230132564774</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.03685061070217897</v>
+        <v>0.04197548231065348</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3950292704052648</v>
+        <v>0.4785138785811214</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1773976191093944</v>
+        <v>0.1513104130686641</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.54176237297757</v>
+        <v>1.379688160701743</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3808027621532548</v>
+        <v>0.3587155888406055</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2940674653211795</v>
+        <v>0.29116163693148</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.472071531277453</v>
+        <v>0.4059322512887861</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2339926414884195</v>
+        <v>0.2362596880702982</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08461714400525774</v>
+        <v>0.08893682031115455</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6408550005258776</v>
+        <v>0.6324961716968365</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.946290781666205</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.131534717043984</v>
+        <v>5.131534717043982</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.725998090355562</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.664871859287182</v>
+        <v>-5.681655962503776</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.825178331931609</v>
+        <v>-4.660002949129439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.83014793965329</v>
+        <v>2.056245038176033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.229902878113849</v>
+        <v>-7.174464028971691</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.789947001559214</v>
+        <v>-5.943616615208094</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.580956416831974</v>
+        <v>1.556933925053388</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.591497657368706</v>
+        <v>-5.417477377139665</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.292217824787951</v>
+        <v>-4.211996996083256</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.870507234705835</v>
+        <v>2.872810343571515</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5780933007415796</v>
+        <v>-0.7673905284503272</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4767600448536094</v>
+        <v>0.4467209775206591</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.449339773988108</v>
+        <v>8.16254542585879</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.3061723907014794</v>
+        <v>-0.7535283828940664</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.034015106174441</v>
+        <v>0.9863203259586374</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.355056712482845</v>
+        <v>8.639473080953074</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.220340700425278</v>
+        <v>-1.198086013839799</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1027945567058218</v>
+        <v>0.1655769589412427</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.425835946137243</v>
+        <v>7.547962871503685</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.362112357032726</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9547351038642206</v>
+        <v>0.9547351038642203</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3760491478381467</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7782189535714967</v>
+        <v>-0.7740084242033979</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6776075620451271</v>
+        <v>-0.6612681363788019</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2194327542350094</v>
+        <v>0.2318860495806781</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6096465536199904</v>
+        <v>-0.5874855493795921</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4794428020794289</v>
+        <v>-0.4858770814691201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1229705583807445</v>
+        <v>0.1210968304951912</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6247777666098728</v>
+        <v>-0.6093218986803551</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4847337327008296</v>
+        <v>-0.4798959797246021</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.315177677202765</v>
+        <v>0.2949964772963508</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.118963193036263</v>
+        <v>-0.125132329534086</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1669510872491762</v>
+        <v>0.1411024563045572</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.148949197779288</v>
+        <v>2.1509250559897</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.03571856325206976</v>
+        <v>-0.08285344268373208</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1342745841850483</v>
+        <v>0.1323582805869548</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.055872959408887</v>
+        <v>1.087249546958404</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1927204016666541</v>
+        <v>-0.1700596330109671</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02512663778548454</v>
+        <v>0.02476793006352866</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.210568574420865</v>
+        <v>1.20993010214989</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.492072513343029</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.68714055504465</v>
+        <v>1.687140555044651</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.820995297517251</v>
@@ -1520,7 +1520,7 @@
         <v>-0.8243741137006239</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.296079394879512</v>
+        <v>3.296079394879514</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.380147294781747</v>
+        <v>-6.042982397277442</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.904857559522467</v>
+        <v>-5.548888601811216</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.496865261961029</v>
+        <v>-1.427952730002915</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.512448123062123</v>
+        <v>-5.94702148116829</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.069454361537828</v>
+        <v>-3.046057191215108</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.50120616285203</v>
+        <v>1.539419681094254</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.165553139462157</v>
+        <v>-5.314123105901564</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.361765564542055</v>
+        <v>-3.381889315770682</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9696791361360636</v>
+        <v>0.7103440865662211</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.2091020040258692</v>
+        <v>0.1872928137872025</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3889625461114611</v>
+        <v>0.4923870356439398</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.784811691988599</v>
+        <v>5.252403118102377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1425079754537295</v>
+        <v>0.4141252968868615</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.382238051452203</v>
+        <v>4.235570268238746</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.854805206561497</v>
+        <v>8.043278508232113</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.8691548304338672</v>
+        <v>-0.647289505189337</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.381904909185447</v>
+        <v>1.657066326193288</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.602605376527736</v>
+        <v>5.492523854030027</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3836912199446634</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2597601050199027</v>
+        <v>0.2597601050199029</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.3912749115566167</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1201679635314359</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4804652911074283</v>
+        <v>0.4804652911074287</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7356413593460804</v>
+        <v>-0.7277964807357425</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6807855660054393</v>
+        <v>-0.6768304263626707</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1899024629116822</v>
+        <v>-0.184325984788449</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6830503138362446</v>
+        <v>-0.649659347551061</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.328378749529448</v>
+        <v>-0.3386370142471686</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1376398366601543</v>
+        <v>0.1563427738366865</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.611126593310657</v>
+        <v>-0.6203226694157354</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4071047947167878</v>
+        <v>-0.4069239593000856</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.09587068151885202</v>
+        <v>0.08156973603933385</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.0008537389721236882</v>
+        <v>0.05193090791264079</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1384348410660647</v>
+        <v>0.123974537329149</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.053548096272319</v>
+        <v>1.136762584982104</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.05133010342230642</v>
+        <v>0.106235522825007</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8271768316313803</v>
+        <v>0.7161245743686789</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.430361374743157</v>
+        <v>1.52755619311858</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1301352022600538</v>
+        <v>-0.06268549444467539</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2490796196214731</v>
+        <v>0.3212776188889936</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.015667156111129</v>
+        <v>1.011183438186265</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.030400674160652</v>
+        <v>-4.009234241385651</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.051929471572454</v>
+        <v>-6.328475385620536</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.1807080762133</v>
+        <v>-2.009737474686243</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.473966146353751</v>
+        <v>-9.613890857653161</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.821947373032728</v>
+        <v>-10.24948894245037</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.710464925471647</v>
+        <v>-3.513412523175744</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.211434524817966</v>
+        <v>-6.049202618815682</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.51390842196583</v>
+        <v>-7.395595224625535</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.849172793268249</v>
+        <v>-2.086045592948244</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.228982365918213</v>
+        <v>3.068145829897837</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.692539851051581</v>
+        <v>-1.053886450074766</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.245012365338169</v>
+        <v>4.38916322624485</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-2.247924465835327</v>
+        <v>-2.321205579611359</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.84080280634931</v>
+        <v>-2.923324144780452</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.84116119811365</v>
+        <v>3.977009032124679</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-0.9774779543660144</v>
+        <v>-0.8370744310239412</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.706389430614472</v>
+        <v>-2.758790541989081</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.033932565970935</v>
+        <v>3.017068144116846</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.6995765611974185</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2440376362138032</v>
+        <v>0.244037636213803</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.5715436955547957</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6545958217847905</v>
+        <v>-0.6829810431895248</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9085499771827966</v>
+        <v>-0.9263863523623904</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3137904158517419</v>
+        <v>-0.3162103147334228</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.7763448073823357</v>
+        <v>-0.7839342457824763</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8113645023929857</v>
+        <v>-0.8203168079757046</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2863917672790693</v>
+        <v>-0.2777571846706741</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.685239377022224</v>
+        <v>-0.6676892685213452</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.814666068819091</v>
+        <v>-0.80962578423127</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.197558493026429</v>
+        <v>-0.2252658075523421</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.116932279103516</v>
+        <v>0.9983579575750287</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.06294732129654092</v>
+        <v>-0.2269315021678026</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.435250259024264</v>
+        <v>1.660079145797248</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.250543913782577</v>
+        <v>-0.2511660169171852</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.3366496992517137</v>
+        <v>-0.327946943166728</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4992889790404685</v>
+        <v>0.5385802323801901</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.1348872381705209</v>
+        <v>-0.1054853222745245</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.4353843031523824</v>
+        <v>-0.438022970152831</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.539980473996557</v>
+        <v>0.507661854287628</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-0.0387356556200924</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.841715824755563</v>
+        <v>2.841715824755562</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.658919643208817</v>
+        <v>-4.34609000556174</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.873167343450736</v>
+        <v>-4.638429361667813</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.268688025221417</v>
+        <v>-2.436539570106724</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.758095529176686</v>
+        <v>-2.560630221771519</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.866880158724865</v>
+        <v>-2.980394208204028</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.7762144177569384</v>
+        <v>0.7183266892645961</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.975096461299676</v>
+        <v>-2.281755514989274</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.534251775067127</v>
+        <v>-2.51183024292373</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.4721735422110003</v>
+        <v>0.5658764776496223</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.514663911068911</v>
+        <v>3.104109479981261</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.89485245768972</v>
+        <v>2.282945972638463</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.517532623682346</v>
+        <v>4.436276071431623</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.957016580781717</v>
+        <v>4.302262999920116</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.713875386317828</v>
+        <v>3.756209910112232</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.750489802272758</v>
+        <v>6.748376964249269</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.987016412269987</v>
+        <v>2.961856251050017</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.34048159618422</v>
+        <v>2.283076145309959</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.154637515810447</v>
+        <v>4.931774960544306</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.008904929542984736</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6532812933081494</v>
+        <v>0.6532812933081491</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7493899360591675</v>
+        <v>-0.7331446361121502</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7407634397942393</v>
+        <v>-0.7328419732911887</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.390969343979924</v>
+        <v>-0.3904070422759963</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4290271745149671</v>
+        <v>-0.4118850028405106</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4518048889071653</v>
+        <v>-0.4966765160063748</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06063512187562051</v>
+        <v>0.06680102582978445</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3674941740727795</v>
+        <v>-0.4097886909459985</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4673552125456114</v>
+        <v>-0.4533736059108125</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.06952724041519039</v>
+        <v>0.06791492015020373</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.792609705449595</v>
+        <v>1.475416606493872</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8186931986076683</v>
+        <v>1.000014810358604</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.066998722286514</v>
+        <v>2.06459247760058</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.39771911958952</v>
+        <v>1.61320777245442</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.355274225041581</v>
+        <v>1.370805186320321</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.38233967909405</v>
+        <v>2.587419258407794</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9060999919603808</v>
+        <v>0.9695138641863695</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7768460676160175</v>
+        <v>0.7278934051393224</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.832556093575757</v>
+        <v>1.620839638294507</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-1.758633924335239</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3.030762480443475</v>
+        <v>3.030762480443473</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-2.274120929102804</v>
@@ -2153,7 +2153,7 @@
         <v>-1.645162963554334</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.386260800093995</v>
+        <v>2.386260800093991</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.919632636440706</v>
@@ -2162,7 +2162,7 @@
         <v>-1.6916598938055</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.715798489657269</v>
+        <v>2.715798489657267</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.742654791751413</v>
+        <v>-2.701969501089676</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.850660490402253</v>
+        <v>-2.932428009410303</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.571420423969398</v>
+        <v>1.740068933093143</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.640080861172969</v>
+        <v>-3.616734032475835</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.008096153058564</v>
+        <v>-3.002683444969905</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.9848923484147154</v>
+        <v>1.005579806798209</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.786803775120801</v>
+        <v>-2.77170035685582</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.587902758608513</v>
+        <v>-2.57319303886169</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.730316879712269</v>
+        <v>1.736680115114118</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.3170386205626524</v>
+        <v>-0.3957492301499759</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.5290636918205479</v>
+        <v>-0.6511806065586008</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.425436146382986</v>
+        <v>4.677253860416021</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.8917018315597458</v>
+        <v>-0.9184045739598613</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.3185022787056321</v>
+        <v>-0.2684284057437518</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.738264564974526</v>
+        <v>3.753074170517726</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.034826361486405</v>
+        <v>-0.9594064180996746</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.7228164987917366</v>
+        <v>-0.8345468394871878</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.740633295777942</v>
+        <v>3.753958246306578</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.2627811187752506</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.4528669351434456</v>
+        <v>0.4528669351434454</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.2371605486743805</v>
@@ -2258,7 +2258,7 @@
         <v>-0.171568603103814</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.248855244850031</v>
+        <v>0.2488552448500305</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.2351624004985256</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2072348604116213</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.33269578771188</v>
+        <v>0.3326957877118798</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.381836420064512</v>
+        <v>-0.3730826199264855</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3973912930217133</v>
+        <v>-0.4013493352584885</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2339930835154063</v>
+        <v>0.2337912089254264</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3538510597678018</v>
+        <v>-0.350333248164317</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2911274016321798</v>
+        <v>-0.2907018917968472</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0929161400540289</v>
+        <v>0.09478389475896247</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3181378063752947</v>
+        <v>-0.3261704178534273</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2976231958601824</v>
+        <v>-0.3006700892875983</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1983721823200964</v>
+        <v>0.2029789188458985</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.05050739996404547</v>
+        <v>-0.06658316619883727</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.09212264950951617</v>
+        <v>-0.1059324163433766</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7492741388099097</v>
+        <v>0.7701473974489347</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.09971647219334726</v>
+        <v>-0.1002796499899323</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.03470728632926545</v>
+        <v>-0.03082742804810055</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4241117119778347</v>
+        <v>0.4226881914711726</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1316830170984582</v>
+        <v>-0.1242960932921246</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.08977069898706981</v>
+        <v>-0.1090932789766638</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4848593834615664</v>
+        <v>0.4942252617125444</v>
       </c>
     </row>
     <row r="52">
